--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value816.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value816.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.723287320664303</v>
+        <v>1.47685718536377</v>
       </c>
       <c r="B1">
-        <v>2.961082137187113</v>
+        <v>3.607518434524536</v>
       </c>
       <c r="C1">
-        <v>1.952957133602864</v>
+        <v>3.10010552406311</v>
       </c>
       <c r="D1">
-        <v>1.697053302888436</v>
+        <v>1.409850239753723</v>
       </c>
       <c r="E1">
-        <v>1.655116864722459</v>
+        <v>0.7790331840515137</v>
       </c>
     </row>
   </sheetData>
